--- a/Code/Results/Cases/Case_6_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_43/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.11389582901495</v>
+        <v>4.113895829014723</v>
       </c>
       <c r="C2">
-        <v>0.671135249609307</v>
+        <v>0.6711352496096197</v>
       </c>
       <c r="D2">
-        <v>0.02458080574988486</v>
+        <v>0.02458080574979959</v>
       </c>
       <c r="E2">
-        <v>0.02173774275785068</v>
+        <v>0.0217377427578036</v>
       </c>
       <c r="F2">
-        <v>3.176916763068874</v>
+        <v>3.17691676306886</v>
       </c>
       <c r="G2">
-        <v>0.0008453776742044207</v>
+        <v>0.0008453776740895393</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05549617253690275</v>
+        <v>0.05549617253690986</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0.6505458304188139</v>
       </c>
       <c r="N2">
-        <v>1.841274654994407</v>
+        <v>1.84127465499445</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.642434651241729</v>
+        <v>3.642434651241672</v>
       </c>
       <c r="C3">
-        <v>0.578776337361063</v>
+        <v>0.5787763373612904</v>
       </c>
       <c r="D3">
-        <v>0.02126232897322211</v>
+        <v>0.02126232897310842</v>
       </c>
       <c r="E3">
-        <v>0.02054154180733647</v>
+        <v>0.02054154180730627</v>
       </c>
       <c r="F3">
-        <v>2.991622738553048</v>
+        <v>2.991622738553062</v>
       </c>
       <c r="G3">
-        <v>0.0008552271826283375</v>
+        <v>0.0008552271825083812</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05608090601594728</v>
+        <v>0.05608090601589399</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0.1607769941089785</v>
       </c>
       <c r="M3">
-        <v>0.58026388637618</v>
+        <v>0.5802638863761658</v>
       </c>
       <c r="N3">
         <v>1.881935511615467</v>
@@ -518,19 +518,19 @@
         <v>3.359820459141304</v>
       </c>
       <c r="C4">
-        <v>0.5231391754566914</v>
+        <v>0.5231391754564356</v>
       </c>
       <c r="D4">
-        <v>0.01931414075411908</v>
+        <v>0.01931414075421856</v>
       </c>
       <c r="E4">
-        <v>0.01981671172233312</v>
+        <v>0.01981671172231447</v>
       </c>
       <c r="F4">
-        <v>2.883880839533376</v>
+        <v>2.883880839533333</v>
       </c>
       <c r="G4">
-        <v>0.0008614351487099482</v>
+        <v>0.0008614351487026448</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05644993332636705</v>
+        <v>0.0564499333263293</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1528500505994188</v>
+        <v>0.1528500505993762</v>
       </c>
       <c r="M4">
-        <v>0.5381863242484499</v>
+        <v>0.5381863242484357</v>
       </c>
       <c r="N4">
-        <v>1.909095665081111</v>
+        <v>1.909095665081082</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.24619021871257</v>
+        <v>3.246190218712513</v>
       </c>
       <c r="C5">
-        <v>0.5006984087864339</v>
+        <v>0.5006984087866613</v>
       </c>
       <c r="D5">
-        <v>0.01853968939878925</v>
+        <v>0.01853968939902373</v>
       </c>
       <c r="E5">
         <v>0.01952314441409531</v>
       </c>
       <c r="F5">
-        <v>2.841365200821969</v>
+        <v>2.841365200821983</v>
       </c>
       <c r="G5">
-        <v>0.0008640072732032381</v>
+        <v>0.0008640072732026827</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05660285753956984</v>
+        <v>0.05660285753962491</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1496801914588417</v>
+        <v>0.1496801914589057</v>
       </c>
       <c r="M5">
-        <v>0.5212817958532412</v>
+        <v>0.5212817958532341</v>
       </c>
       <c r="N5">
-        <v>1.920688601395085</v>
+        <v>1.920688601394971</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.227409643478097</v>
+        <v>3.227409643477984</v>
       </c>
       <c r="C6">
         <v>0.4969851017415294</v>
       </c>
       <c r="D6">
-        <v>0.01841218429542124</v>
+        <v>0.01841218429532532</v>
       </c>
       <c r="E6">
-        <v>0.0194744900009205</v>
+        <v>0.01947449000092405</v>
       </c>
       <c r="F6">
-        <v>2.834385988272643</v>
+        <v>2.834385988272686</v>
       </c>
       <c r="G6">
-        <v>0.0008644369847821442</v>
+        <v>0.0008644369848392503</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05662840487344978</v>
+        <v>0.05662840487346621</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1491573415450347</v>
+        <v>0.1491573415449992</v>
       </c>
       <c r="M6">
-        <v>0.5184886777347515</v>
+        <v>0.5184886777347586</v>
       </c>
       <c r="N6">
-        <v>1.922644567113096</v>
+        <v>1.922644567113139</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.358282015072291</v>
+        <v>3.358282015072234</v>
       </c>
       <c r="C7">
-        <v>0.5228356400616008</v>
+        <v>0.5228356400621124</v>
       </c>
       <c r="D7">
-        <v>0.01930362125750307</v>
+        <v>0.01930362125749241</v>
       </c>
       <c r="E7">
-        <v>0.019812746027557</v>
+        <v>0.01981274602755345</v>
       </c>
       <c r="F7">
-        <v>2.883301989130317</v>
+        <v>2.88330198913026</v>
       </c>
       <c r="G7">
-        <v>0.0008614696634539798</v>
+        <v>0.0008614696634534573</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05645198538372664</v>
+        <v>0.05645198538371909</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1528070627914175</v>
+        <v>0.1528070627913962</v>
       </c>
       <c r="M7">
-        <v>0.5379573976935887</v>
+        <v>0.5379573976935959</v>
       </c>
       <c r="N7">
-        <v>1.909249919628991</v>
+        <v>1.909249919628976</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>3.949792066715588</v>
       </c>
       <c r="C8">
-        <v>0.6390437274953911</v>
+        <v>0.6390437274946805</v>
       </c>
       <c r="D8">
-        <v>0.02341613196880132</v>
+        <v>0.02341613196868053</v>
       </c>
       <c r="E8">
-        <v>0.02132289953604705</v>
+        <v>0.021322899536111</v>
       </c>
       <c r="F8">
-        <v>3.111696500723056</v>
+        <v>3.111696500723042</v>
       </c>
       <c r="G8">
-        <v>0.0008487417732017813</v>
+        <v>0.0008487417731442015</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05569573075626622</v>
+        <v>0.05569573075628709</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1694572465241819</v>
+        <v>0.1694572465242175</v>
       </c>
       <c r="M8">
-        <v>0.6260715988687053</v>
+        <v>0.6260715988687124</v>
       </c>
       <c r="N8">
-        <v>1.854822205432328</v>
+        <v>1.854822205432342</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.173738777926928</v>
+        <v>5.173738777926815</v>
       </c>
       <c r="C9">
-        <v>0.8773331749132183</v>
+        <v>0.8773331749134456</v>
       </c>
       <c r="D9">
-        <v>0.0323437187730633</v>
+        <v>0.0323437187731983</v>
       </c>
       <c r="E9">
-        <v>0.02439240259335129</v>
+        <v>0.02439240259338327</v>
       </c>
       <c r="F9">
         <v>3.613764051270067</v>
       </c>
       <c r="G9">
-        <v>0.0008249539061506914</v>
+        <v>0.0008249539061495118</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05429072013235636</v>
+        <v>0.05429072013253933</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2044526536542151</v>
+        <v>0.2044526536542648</v>
       </c>
       <c r="M9">
-        <v>0.8088170616130057</v>
+        <v>0.8088170616130128</v>
       </c>
       <c r="N9">
         <v>1.766846056288543</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.12703304126228</v>
+        <v>6.127033041262052</v>
       </c>
       <c r="C10">
-        <v>1.061764627951447</v>
+        <v>1.061764627951504</v>
       </c>
       <c r="D10">
-        <v>0.03967509301039485</v>
+        <v>0.03967509301038774</v>
       </c>
       <c r="E10">
-        <v>0.0267642509744821</v>
+        <v>0.02676425097445367</v>
       </c>
       <c r="F10">
         <v>4.025675335093638</v>
       </c>
       <c r="G10">
-        <v>0.0008080334707274663</v>
+        <v>0.0008080334707136563</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05330411730253637</v>
+        <v>0.05330411730254703</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2320173856256105</v>
+        <v>0.2320173856256389</v>
       </c>
       <c r="M10">
-        <v>0.9513861372545946</v>
+        <v>0.9513861372546017</v>
       </c>
       <c r="N10">
-        <v>1.715767052385488</v>
+        <v>1.715767052385431</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.576380477022326</v>
+        <v>6.576380477022269</v>
       </c>
       <c r="C11">
-        <v>1.148492299619249</v>
+        <v>1.148492299619022</v>
       </c>
       <c r="D11">
-        <v>0.04324379226045494</v>
+        <v>0.0432437922602773</v>
       </c>
       <c r="E11">
-        <v>0.0278822365548379</v>
+        <v>0.02788223655476685</v>
       </c>
       <c r="F11">
-        <v>4.225027433237614</v>
+        <v>4.225027433237585</v>
       </c>
       <c r="G11">
-        <v>0.0008004159723776867</v>
+        <v>0.0008004159723753267</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0528647988344888</v>
+        <v>0.05286479883453277</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2450703226532482</v>
+        <v>0.2450703226531772</v>
       </c>
       <c r="M11">
-        <v>1.01863231408884</v>
+        <v>1.018632314088819</v>
       </c>
       <c r="N11">
-        <v>1.696032207292063</v>
+        <v>1.696032207292134</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.749175407041946</v>
+        <v>6.749175407041889</v>
       </c>
       <c r="C12">
-        <v>1.181818201537112</v>
+        <v>1.181818201537169</v>
       </c>
       <c r="D12">
-        <v>0.04463531498313245</v>
+        <v>0.04463531498305429</v>
       </c>
       <c r="E12">
-        <v>0.02831256207214672</v>
+        <v>0.02831256207215471</v>
       </c>
       <c r="F12">
-        <v>4.302493939487874</v>
+        <v>4.302493939487846</v>
       </c>
       <c r="G12">
-        <v>0.0007975389420840371</v>
+        <v>0.0007975389420264989</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05269977581092533</v>
+        <v>0.05269977581084717</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2500977101067861</v>
+        <v>0.2500977101068003</v>
       </c>
       <c r="M12">
-        <v>1.044497329287204</v>
+        <v>1.044497329287182</v>
       </c>
       <c r="N12">
-        <v>1.689117776049713</v>
+        <v>1.689117776049699</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.711836997407772</v>
+        <v>6.711836997407886</v>
       </c>
       <c r="C13">
-        <v>1.17461799155177</v>
+        <v>1.174617991551941</v>
       </c>
       <c r="D13">
-        <v>0.04433372520500711</v>
+        <v>0.04433372520502843</v>
       </c>
       <c r="E13">
-        <v>0.02821954980277219</v>
+        <v>0.0282195498026887</v>
       </c>
       <c r="F13">
-        <v>4.28571779462078</v>
+        <v>4.285717794620808</v>
       </c>
       <c r="G13">
-        <v>0.0007981582942668111</v>
+        <v>0.0007981582942717914</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05273525740634177</v>
+        <v>0.0527352574061295</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2490110268494306</v>
+        <v>0.2490110268494021</v>
       </c>
       <c r="M13">
-        <v>1.038908041403481</v>
+        <v>1.038908041403467</v>
       </c>
       <c r="N13">
-        <v>1.690581104537429</v>
+        <v>1.690581104537486</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.59054119674596</v>
+        <v>6.590541196746017</v>
       </c>
       <c r="C14">
-        <v>1.151223857750551</v>
+        <v>1.151223857750779</v>
       </c>
       <c r="D14">
-        <v>0.04335742811169041</v>
+        <v>0.04335742811186094</v>
       </c>
       <c r="E14">
-        <v>0.02791749145543498</v>
+        <v>0.02791749145548028</v>
       </c>
       <c r="F14">
         <v>4.231359452392041</v>
       </c>
       <c r="G14">
-        <v>0.0008001791504039014</v>
+        <v>0.0008001791503325135</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05285119563821628</v>
+        <v>0.05285119563829976</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2454821683517423</v>
+        <v>0.2454821683515007</v>
       </c>
       <c r="M14">
-        <v>1.020751867831208</v>
+        <v>1.02075186783123</v>
       </c>
       <c r="N14">
-        <v>1.695451809320957</v>
+        <v>1.695451809321057</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.51659964241145</v>
+        <v>6.516599642411563</v>
       </c>
       <c r="C15">
-        <v>1.136959795987877</v>
+        <v>1.136959795988105</v>
       </c>
       <c r="D15">
-        <v>0.0427648565194616</v>
+        <v>0.04276485651922002</v>
       </c>
       <c r="E15">
-        <v>0.02773342361469489</v>
+        <v>0.02773342361469133</v>
       </c>
       <c r="F15">
-        <v>4.198328944704372</v>
+        <v>4.198328944704429</v>
       </c>
       <c r="G15">
-        <v>0.000801417841025772</v>
+        <v>0.0008014178411566597</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05292238453560927</v>
+        <v>0.05292238453559595</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2433319904332905</v>
+        <v>0.2433319904332194</v>
       </c>
       <c r="M15">
-        <v>1.009684641322607</v>
+        <v>1.009684641322593</v>
       </c>
       <c r="N15">
-        <v>1.698509798754955</v>
+        <v>1.698509798754941</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.098014163763708</v>
+        <v>6.098014163763764</v>
       </c>
       <c r="C16">
-        <v>1.056160042080421</v>
+        <v>1.056160042080137</v>
       </c>
       <c r="D16">
-        <v>0.03944710696253395</v>
+        <v>0.03944710696267606</v>
       </c>
       <c r="E16">
-        <v>0.02669208428816106</v>
+        <v>0.02669208428819658</v>
       </c>
       <c r="F16">
-        <v>4.012909060060196</v>
+        <v>4.012909060060167</v>
       </c>
       <c r="G16">
-        <v>0.0008085325736598833</v>
+        <v>0.0008085325737316813</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05333301639328081</v>
+        <v>0.05333301639334032</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2311755589456084</v>
+        <v>0.2311755589457221</v>
       </c>
       <c r="M16">
         <v>0.9470442045986758</v>
       </c>
       <c r="N16">
-        <v>1.717131766488436</v>
+        <v>1.717131766488407</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.845498267554945</v>
+        <v>5.845498267554888</v>
       </c>
       <c r="C17">
-        <v>1.00736805126229</v>
+        <v>1.007368051261835</v>
       </c>
       <c r="D17">
-        <v>0.0374759492670762</v>
+        <v>0.03747594926704778</v>
       </c>
       <c r="E17">
-        <v>0.02606414941549762</v>
+        <v>0.02606414941545054</v>
       </c>
       <c r="F17">
-        <v>3.902396302309882</v>
+        <v>3.902396302309796</v>
       </c>
       <c r="G17">
-        <v>0.0008129150270849695</v>
+        <v>0.00081291502689142</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05358733660260029</v>
+        <v>0.05358733660247239</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2238566637859947</v>
+        <v>0.223856663785952</v>
       </c>
       <c r="M17">
-        <v>0.9092664589501851</v>
+        <v>0.9092664589502135</v>
       </c>
       <c r="N17">
         <v>1.729489343558924</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.701708808547323</v>
+        <v>5.701708808547437</v>
       </c>
       <c r="C18">
-        <v>0.9795652215068458</v>
+        <v>0.9795652215068174</v>
       </c>
       <c r="D18">
-        <v>0.03636373397088732</v>
+        <v>0.03636373397088022</v>
       </c>
       <c r="E18">
-        <v>0.02570655757261608</v>
+        <v>0.02570655757261697</v>
       </c>
       <c r="F18">
-        <v>3.839941893290899</v>
+        <v>3.83994189329087</v>
       </c>
       <c r="G18">
-        <v>0.0008154434624917214</v>
+        <v>0.0008154434625490985</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05373450986017803</v>
+        <v>0.05373450986029926</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>5.653262637812361</v>
       </c>
       <c r="C19">
-        <v>0.9701943200544747</v>
+        <v>0.9701943200542189</v>
       </c>
       <c r="D19">
-        <v>0.03599067402640088</v>
+        <v>0.0359906740265572</v>
       </c>
       <c r="E19">
-        <v>0.02558606004278374</v>
+        <v>0.02558606004278818</v>
       </c>
       <c r="F19">
         <v>3.818979295893882</v>
       </c>
       <c r="G19">
-        <v>0.0008163009913349914</v>
+        <v>0.0008163009914668568</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05378449478890301</v>
+        <v>0.05378449478880043</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2182933442419142</v>
+        <v>0.2182933442420136</v>
       </c>
       <c r="M19">
-        <v>0.8805132224570613</v>
+        <v>0.88051322245704</v>
       </c>
       <c r="N19">
-        <v>1.739494183898913</v>
+        <v>1.739494183898941</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.872226254598388</v>
+        <v>5.872226254598161</v>
       </c>
       <c r="C20">
-        <v>1.012534502266362</v>
+        <v>1.012534502266078</v>
       </c>
       <c r="D20">
-        <v>0.03768350868338644</v>
+        <v>0.03768350868361381</v>
       </c>
       <c r="E20">
-        <v>0.02613061452684473</v>
+        <v>0.02613061452687226</v>
       </c>
       <c r="F20">
         <v>3.914044003506035</v>
       </c>
       <c r="G20">
-        <v>0.0008124477304031422</v>
+        <v>0.0008124477304866539</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0535601713599263</v>
+        <v>0.0535601713599112</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2246307712643301</v>
+        <v>0.2246307712643159</v>
       </c>
       <c r="M20">
-        <v>0.9132646853690076</v>
+        <v>0.9132646853689863</v>
       </c>
       <c r="N20">
-        <v>1.728139763491086</v>
+        <v>1.728139763491043</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.626093842735486</v>
+        <v>6.626093842735656</v>
       </c>
       <c r="C21">
-        <v>1.158081473061713</v>
+        <v>1.158081473061429</v>
       </c>
       <c r="D21">
-        <v>0.04364304365187621</v>
+        <v>0.04364304365190463</v>
       </c>
       <c r="E21">
-        <v>0.02800601225146071</v>
+        <v>0.02800601225144206</v>
       </c>
       <c r="F21">
         <v>4.247269967680552</v>
       </c>
       <c r="G21">
-        <v>0.0007995854049069346</v>
+        <v>0.000799585404969163</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05281710568191844</v>
+        <v>0.05281710568186515</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2465162931253815</v>
+        <v>0.2465162931254383</v>
       </c>
       <c r="M21">
-        <v>1.026073419476553</v>
+        <v>1.02607341947656</v>
       </c>
       <c r="N21">
-        <v>1.694005520302142</v>
+        <v>1.694005520302184</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.134377677253156</v>
+        <v>7.134377677253212</v>
       </c>
       <c r="C22">
-        <v>1.256070625891766</v>
+        <v>1.256070625891539</v>
       </c>
       <c r="D22">
-        <v>0.04777571137565673</v>
+        <v>0.04777571137579173</v>
       </c>
       <c r="E22">
-        <v>0.0292731124770409</v>
+        <v>0.02927311247703912</v>
       </c>
       <c r="F22">
         <v>4.476717430454016</v>
       </c>
       <c r="G22">
-        <v>0.0007912209113723075</v>
+        <v>0.0007912209115264341</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05233925358663516</v>
+        <v>0.05233925358669778</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2613185120560217</v>
+        <v>0.2613185120559933</v>
       </c>
       <c r="M22">
-        <v>1.102166404849761</v>
+        <v>1.10216640484974</v>
       </c>
       <c r="N22">
-        <v>1.67498538340061</v>
+        <v>1.674985383400667</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.861530029476569</v>
+        <v>6.861530029476683</v>
       </c>
       <c r="C23">
-        <v>1.203481111805843</v>
+        <v>1.2034811118059</v>
       </c>
       <c r="D23">
-        <v>0.04554582638122184</v>
+        <v>0.0455458263810371</v>
       </c>
       <c r="E23">
-        <v>0.02859253789874838</v>
+        <v>0.02859253789873151</v>
       </c>
       <c r="F23">
-        <v>4.353095471626801</v>
+        <v>4.353095471626716</v>
       </c>
       <c r="G23">
-        <v>0.0007956828170649531</v>
+        <v>0.0007956828171499722</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05259358840629424</v>
+        <v>0.05259358840641015</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2533687174992139</v>
+        <v>0.2533687174993418</v>
       </c>
       <c r="M23">
         <v>1.061316767569515</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.860138244826317</v>
+        <v>5.860138244826373</v>
       </c>
       <c r="C24">
-        <v>1.010197981937665</v>
+        <v>1.010197981937495</v>
       </c>
       <c r="D24">
-        <v>0.03758960604933037</v>
+        <v>0.03758960604901773</v>
       </c>
       <c r="E24">
-        <v>0.02610055510851783</v>
+        <v>0.02610055510851605</v>
       </c>
       <c r="F24">
         <v>3.908774729967519</v>
       </c>
       <c r="G24">
-        <v>0.0008126589672103328</v>
+        <v>0.0008126589672826087</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05357244977010911</v>
+        <v>0.05357244977005848</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2242806556564005</v>
+        <v>0.2242806556564432</v>
       </c>
       <c r="M24">
-        <v>0.911456432965835</v>
+        <v>0.9114564329658208</v>
       </c>
       <c r="N24">
-        <v>1.728748887875241</v>
+        <v>1.72874888787517</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.83433420395977</v>
+        <v>4.8343342039596</v>
       </c>
       <c r="C25">
-        <v>0.8114668731113284</v>
+        <v>0.8114668731108736</v>
       </c>
       <c r="D25">
-        <v>0.02981278770781159</v>
+        <v>0.02981278770804607</v>
       </c>
       <c r="E25">
-        <v>0.02354563040789159</v>
+        <v>0.02354563040794755</v>
       </c>
       <c r="F25">
-        <v>3.471180851288636</v>
+        <v>3.471180851288665</v>
       </c>
       <c r="G25">
-        <v>0.0008312789243124758</v>
+        <v>0.000831278924377223</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05466265770461387</v>
+        <v>0.05466265770465828</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1946937289135562</v>
+        <v>0.1946937289135917</v>
       </c>
       <c r="M25">
-        <v>0.75809924539805</v>
+        <v>0.7580992453980286</v>
       </c>
       <c r="N25">
         <v>1.788435054670956</v>

--- a/Code/Results/Cases/Case_6_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_43/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.113895829014723</v>
+        <v>2.41540107502459</v>
       </c>
       <c r="C2">
-        <v>0.6711352496096197</v>
+        <v>0.4692094980470074</v>
       </c>
       <c r="D2">
-        <v>0.02458080574979959</v>
+        <v>0.02233917140410568</v>
       </c>
       <c r="E2">
-        <v>0.0217377427578036</v>
+        <v>0.03359695178357647</v>
       </c>
       <c r="F2">
-        <v>3.17691676306886</v>
+        <v>1.182263303851684</v>
       </c>
       <c r="G2">
-        <v>0.0008453776740895393</v>
+        <v>0.9880776741394044</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.005199643555439337</v>
       </c>
       <c r="J2">
-        <v>0.05549617253690986</v>
+        <v>0.6682294916836184</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6180910069265195</v>
       </c>
       <c r="L2">
-        <v>0.1741132353254216</v>
+        <v>0.05997413315319733</v>
       </c>
       <c r="M2">
-        <v>0.6505458304188139</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.84127465499445</v>
+        <v>0.2002514756828688</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4390769964082182</v>
+      </c>
+      <c r="P2">
+        <v>0.9600360791769003</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.642434651241672</v>
+        <v>2.110114656404505</v>
       </c>
       <c r="C3">
-        <v>0.5787763373612904</v>
+        <v>0.4083137740597635</v>
       </c>
       <c r="D3">
-        <v>0.02126232897310842</v>
+        <v>0.02169421309920061</v>
       </c>
       <c r="E3">
-        <v>0.02054154180730627</v>
+        <v>0.03387360634952852</v>
       </c>
       <c r="F3">
-        <v>2.991622738553062</v>
+        <v>1.127267915951208</v>
       </c>
       <c r="G3">
-        <v>0.0008552271825083812</v>
+        <v>0.9304367481960156</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00813024651005545</v>
       </c>
       <c r="J3">
-        <v>0.05608090601589399</v>
+        <v>0.6476283227984965</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6066002814917937</v>
       </c>
       <c r="L3">
-        <v>0.1607769941089785</v>
+        <v>0.06024652440987666</v>
       </c>
       <c r="M3">
-        <v>0.5802638863761658</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.881935511615467</v>
+        <v>0.1839904110057802</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3867171111738514</v>
+      </c>
+      <c r="P3">
+        <v>0.999441098167738</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.359820459141304</v>
+        <v>1.922727456682367</v>
       </c>
       <c r="C4">
-        <v>0.5231391754564356</v>
+        <v>0.3712538072196878</v>
       </c>
       <c r="D4">
-        <v>0.01931414075421856</v>
+        <v>0.0213206848931371</v>
       </c>
       <c r="E4">
-        <v>0.01981671172231447</v>
+        <v>0.03405503879536942</v>
       </c>
       <c r="F4">
-        <v>2.883880839533333</v>
+        <v>1.094766513949921</v>
       </c>
       <c r="G4">
-        <v>0.0008614351487026448</v>
+        <v>0.8961469459973443</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0103867440150851</v>
       </c>
       <c r="J4">
-        <v>0.0564499333263293</v>
+        <v>0.6356522933052844</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6001126843444382</v>
       </c>
       <c r="L4">
-        <v>0.1528500505993762</v>
+        <v>0.06042352726433453</v>
       </c>
       <c r="M4">
-        <v>0.5381863242484357</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.909095665081082</v>
+        <v>0.1742841043979766</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3547120434072966</v>
+      </c>
+      <c r="P4">
+        <v>1.024537377598934</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.246190218712513</v>
+        <v>1.845083839730961</v>
       </c>
       <c r="C5">
-        <v>0.5006984087866613</v>
+        <v>0.3566306211367021</v>
       </c>
       <c r="D5">
-        <v>0.01853968939902373</v>
+        <v>0.02119328330930514</v>
       </c>
       <c r="E5">
-        <v>0.01952314441409531</v>
+        <v>0.03413041336484746</v>
       </c>
       <c r="F5">
-        <v>2.841365200821983</v>
+        <v>1.080981171999348</v>
       </c>
       <c r="G5">
-        <v>0.0008640072732026827</v>
+        <v>0.8815418694175037</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01150356534888841</v>
       </c>
       <c r="J5">
-        <v>0.05660285753962491</v>
+        <v>0.6304835145116243</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5970225648862382</v>
       </c>
       <c r="L5">
-        <v>0.1496801914589057</v>
+        <v>0.06050090631536342</v>
       </c>
       <c r="M5">
-        <v>0.5212817958532341</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.920688601394971</v>
+        <v>0.1705229734990752</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3416048121534772</v>
+      </c>
+      <c r="P5">
+        <v>1.034983449652739</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.227409643477984</v>
+        <v>1.83062835127842</v>
       </c>
       <c r="C6">
-        <v>0.4969851017415294</v>
+        <v>0.3547053365721524</v>
       </c>
       <c r="D6">
-        <v>0.01841218429532532</v>
+        <v>0.02119613769906259</v>
       </c>
       <c r="E6">
-        <v>0.01947449000092405</v>
+        <v>0.03414135707634669</v>
       </c>
       <c r="F6">
-        <v>2.834385988272686</v>
+        <v>1.07768120493823</v>
       </c>
       <c r="G6">
-        <v>0.0008644369848392503</v>
+        <v>0.8780432743476609</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01180992127111669</v>
       </c>
       <c r="J6">
-        <v>0.05662840487346621</v>
+        <v>0.6290852750462079</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5958061041585125</v>
       </c>
       <c r="L6">
-        <v>0.1491573415449992</v>
+        <v>0.06051745241259265</v>
       </c>
       <c r="M6">
-        <v>0.5184886777347586</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.922644567113139</v>
+        <v>0.1700590146812715</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3393121716458936</v>
+      </c>
+      <c r="P6">
+        <v>1.036731409586247</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.358282015072234</v>
+        <v>1.917396888271895</v>
       </c>
       <c r="C7">
-        <v>0.5228356400621124</v>
+        <v>0.3724221903458158</v>
       </c>
       <c r="D7">
-        <v>0.01930362125749241</v>
+        <v>0.02138345981651568</v>
       </c>
       <c r="E7">
-        <v>0.01981274602755345</v>
+        <v>0.03405136443400647</v>
       </c>
       <c r="F7">
-        <v>2.88330198913026</v>
+        <v>1.09176763755562</v>
       </c>
       <c r="G7">
-        <v>0.0008614696634534573</v>
+        <v>0.8929720210551153</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01069508323151602</v>
       </c>
       <c r="J7">
-        <v>0.05645198538371909</v>
+        <v>0.6340805611665132</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5981269028379472</v>
       </c>
       <c r="L7">
-        <v>0.1528070627913962</v>
+        <v>0.06043480355108155</v>
       </c>
       <c r="M7">
-        <v>0.5379573976935959</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.909249919628976</v>
+        <v>0.174661108143205</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3542112962953752</v>
+      </c>
+      <c r="P7">
+        <v>1.024694608055796</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.949792066715588</v>
+        <v>2.304370155592494</v>
       </c>
       <c r="C8">
-        <v>0.6390437274946805</v>
+        <v>0.4499614228524251</v>
       </c>
       <c r="D8">
-        <v>0.02341613196868053</v>
+        <v>0.02219703262630546</v>
       </c>
       <c r="E8">
-        <v>0.021322899536111</v>
+        <v>0.03368407304201915</v>
       </c>
       <c r="F8">
-        <v>3.111696500723042</v>
+        <v>1.159296259710914</v>
       </c>
       <c r="G8">
-        <v>0.0008487417731442015</v>
+        <v>0.9640087834418694</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.006455741120043434</v>
       </c>
       <c r="J8">
-        <v>0.05569573075628709</v>
+        <v>0.6589921563077752</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6114346756939</v>
       </c>
       <c r="L8">
-        <v>0.1694572465242175</v>
+        <v>0.06008197675277405</v>
       </c>
       <c r="M8">
-        <v>0.6260715988687124</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.854822205432342</v>
+        <v>0.19515230087503</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4205543464738</v>
+      </c>
+      <c r="P8">
+        <v>0.9735312907596505</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.173738777926815</v>
+        <v>3.072537110098381</v>
       </c>
       <c r="C9">
-        <v>0.8773331749134456</v>
+        <v>0.6026965202676422</v>
       </c>
       <c r="D9">
-        <v>0.0323437187731983</v>
+        <v>0.02386325744770446</v>
       </c>
       <c r="E9">
-        <v>0.02439240259338327</v>
+        <v>0.03306530136765351</v>
       </c>
       <c r="F9">
-        <v>3.613764051270067</v>
+        <v>1.307692274382347</v>
       </c>
       <c r="G9">
-        <v>0.0008249539061495118</v>
+        <v>1.118314751934776</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001593776707902173</v>
       </c>
       <c r="J9">
-        <v>0.05429072013253933</v>
+        <v>0.716285097022876</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6458590812705438</v>
       </c>
       <c r="L9">
-        <v>0.2044526536542648</v>
+        <v>0.05944719015742184</v>
       </c>
       <c r="M9">
-        <v>0.8088170616130128</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.766846056288543</v>
+        <v>0.2369442128727854</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5526266890976004</v>
+      </c>
+      <c r="P9">
+        <v>0.880460643238191</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.127033041262052</v>
+        <v>3.637225214726016</v>
       </c>
       <c r="C10">
-        <v>1.061764627951504</v>
+        <v>0.7183346643967923</v>
       </c>
       <c r="D10">
-        <v>0.03967509301038774</v>
+        <v>0.02524331678064584</v>
       </c>
       <c r="E10">
-        <v>0.02676425097445367</v>
+        <v>0.03266895470740683</v>
       </c>
       <c r="F10">
-        <v>4.025675335093638</v>
+        <v>1.423283814291764</v>
       </c>
       <c r="G10">
-        <v>0.0008080334707136563</v>
+        <v>1.237426778851443</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0008933133450828024</v>
       </c>
       <c r="J10">
-        <v>0.05330411730254703</v>
+        <v>0.7617487021731222</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.6736583581242783</v>
       </c>
       <c r="L10">
-        <v>0.2320173856256389</v>
+        <v>0.0590411089064844</v>
       </c>
       <c r="M10">
-        <v>0.9513861372546017</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.715767052385431</v>
+        <v>0.269565756200052</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.6506942734669039</v>
+      </c>
+      <c r="P10">
+        <v>0.8171160946787985</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.576380477022269</v>
+        <v>3.887664437526212</v>
       </c>
       <c r="C11">
-        <v>1.148492299619022</v>
+        <v>0.7740451040542098</v>
       </c>
       <c r="D11">
-        <v>0.0432437922602773</v>
+        <v>0.02600582618142511</v>
       </c>
       <c r="E11">
-        <v>0.02788223655476685</v>
+        <v>0.0324963799068485</v>
       </c>
       <c r="F11">
-        <v>4.225027433237585</v>
+        <v>1.47325671118513</v>
       </c>
       <c r="G11">
-        <v>0.0008004159723753267</v>
+        <v>1.288562069991855</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001642796620050291</v>
       </c>
       <c r="J11">
-        <v>0.05286479883453277</v>
+        <v>0.7810001147772994</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.6840013522040636</v>
       </c>
       <c r="L11">
-        <v>0.2450703226531772</v>
+        <v>0.05889709554440614</v>
       </c>
       <c r="M11">
-        <v>1.018632314088819</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.696032207292134</v>
+        <v>0.2855446278176288</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6950856493323769</v>
+      </c>
+      <c r="P11">
+        <v>0.7898715094222801</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.749175407041889</v>
+        <v>3.986571634784241</v>
       </c>
       <c r="C12">
-        <v>1.181818201537169</v>
+        <v>0.7940442091570503</v>
       </c>
       <c r="D12">
-        <v>0.04463531498305429</v>
+        <v>0.02624325380783077</v>
       </c>
       <c r="E12">
-        <v>0.02831256207215471</v>
+        <v>0.03243643460779855</v>
       </c>
       <c r="F12">
-        <v>4.302493939487846</v>
+        <v>1.494974246711024</v>
       </c>
       <c r="G12">
-        <v>0.0007975389420264989</v>
+        <v>1.310852257610151</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001826676868907917</v>
       </c>
       <c r="J12">
-        <v>0.05269977581084717</v>
+        <v>0.7897660640363426</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.6897455697600492</v>
       </c>
       <c r="L12">
-        <v>0.2500977101068003</v>
+        <v>0.05883003647080898</v>
       </c>
       <c r="M12">
-        <v>1.044497329287182</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.689117776049699</v>
+        <v>0.291286810909213</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.7122540223899776</v>
+      </c>
+      <c r="P12">
+        <v>0.7795414383407078</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.711836997407886</v>
+        <v>3.966050981142246</v>
       </c>
       <c r="C13">
-        <v>1.174617991551941</v>
+        <v>0.7894830798135217</v>
       </c>
       <c r="D13">
-        <v>0.04433372520502843</v>
+        <v>0.02618065837271999</v>
       </c>
       <c r="E13">
-        <v>0.0282195498026887</v>
+        <v>0.0324499115612954</v>
       </c>
       <c r="F13">
-        <v>4.285717794620808</v>
+        <v>1.490780052138192</v>
       </c>
       <c r="G13">
-        <v>0.0007981582942717914</v>
+        <v>1.306566503707245</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001738751411566319</v>
       </c>
       <c r="J13">
-        <v>0.0527352574061295</v>
+        <v>0.7881350061672947</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.6888421278381429</v>
       </c>
       <c r="L13">
-        <v>0.2490110268494021</v>
+        <v>0.05884138586571552</v>
       </c>
       <c r="M13">
-        <v>1.038908041403467</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.690581104537486</v>
+        <v>0.2899712772106113</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.7086146989096989</v>
+      </c>
+      <c r="P13">
+        <v>0.781716046931944</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.590541196746017</v>
+        <v>3.896132669925578</v>
       </c>
       <c r="C14">
-        <v>1.151223857750779</v>
+        <v>0.7755824750135787</v>
       </c>
       <c r="D14">
-        <v>0.04335742811186094</v>
+        <v>0.02602048334372142</v>
       </c>
       <c r="E14">
-        <v>0.02791749145548028</v>
+        <v>0.03249168787533396</v>
       </c>
       <c r="F14">
-        <v>4.231359452392041</v>
+        <v>1.475248182441845</v>
       </c>
       <c r="G14">
-        <v>0.0008001791503325135</v>
+        <v>1.290614147167446</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001636883047889448</v>
       </c>
       <c r="J14">
-        <v>0.05285119563829976</v>
+        <v>0.7818301850288094</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.6846154772424242</v>
       </c>
       <c r="L14">
-        <v>0.2454821683515007</v>
+        <v>0.05889027091537002</v>
       </c>
       <c r="M14">
-        <v>1.02075186783123</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.695451809321057</v>
+        <v>0.28598347308359</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.6965227155959894</v>
+      </c>
+      <c r="P14">
+        <v>0.7890004218786579</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.516599642411563</v>
+        <v>3.851779659207921</v>
       </c>
       <c r="C15">
-        <v>1.136959795988105</v>
+        <v>0.767573193888353</v>
       </c>
       <c r="D15">
-        <v>0.04276485651922002</v>
+        <v>0.02594516500657917</v>
       </c>
       <c r="E15">
-        <v>0.02773342361469133</v>
+        <v>0.0325162376890038</v>
       </c>
       <c r="F15">
-        <v>4.198328944704429</v>
+        <v>1.464798164015903</v>
       </c>
       <c r="G15">
-        <v>0.0008014178411566597</v>
+        <v>1.279843431410768</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001679270901833618</v>
       </c>
       <c r="J15">
-        <v>0.05292238453559595</v>
+        <v>0.7774699979223101</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.6813760611257464</v>
       </c>
       <c r="L15">
-        <v>0.2433319904332194</v>
+        <v>0.05892631664518611</v>
       </c>
       <c r="M15">
-        <v>1.009684641322593</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.698509798754941</v>
+        <v>0.2836989717678051</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.6890043460371942</v>
+      </c>
+      <c r="P15">
+        <v>0.7935664196164929</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.098014163763764</v>
+        <v>3.607869134151656</v>
       </c>
       <c r="C16">
-        <v>1.056160042080137</v>
+        <v>0.7188089515631475</v>
       </c>
       <c r="D16">
-        <v>0.03944710696267606</v>
+        <v>0.02538075718502597</v>
       </c>
       <c r="E16">
-        <v>0.02669208428819658</v>
+        <v>0.03266931338566093</v>
       </c>
       <c r="F16">
-        <v>4.012909060060167</v>
+        <v>1.411814441560907</v>
       </c>
       <c r="G16">
-        <v>0.0008085325737316813</v>
+        <v>1.22536933596237</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001580510165785753</v>
       </c>
       <c r="J16">
-        <v>0.05333301639334032</v>
+        <v>0.7561314326523814</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.6673610275161863</v>
       </c>
       <c r="L16">
-        <v>0.2311755589457221</v>
+        <v>0.05909857510996197</v>
       </c>
       <c r="M16">
-        <v>0.9470442045986758</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.717131766488407</v>
+        <v>0.2697862245895521</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.6467994999066065</v>
+      </c>
+      <c r="P16">
+        <v>0.8195493441362416</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.845498267554888</v>
+        <v>3.458571906326199</v>
       </c>
       <c r="C17">
-        <v>1.007368051261835</v>
+        <v>0.6890876338449345</v>
       </c>
       <c r="D17">
-        <v>0.03747594926704778</v>
+        <v>0.02504154163756311</v>
       </c>
       <c r="E17">
-        <v>0.02606414941545054</v>
+        <v>0.03276682720644231</v>
       </c>
       <c r="F17">
-        <v>3.902396302309796</v>
+        <v>1.379893157635053</v>
       </c>
       <c r="G17">
-        <v>0.00081291502689142</v>
+        <v>1.192499228445669</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001709817430739946</v>
       </c>
       <c r="J17">
-        <v>0.05358733660247239</v>
+        <v>0.7433371792839267</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.659021758280673</v>
       </c>
       <c r="L17">
-        <v>0.223856663785952</v>
+        <v>0.05920701910413761</v>
       </c>
       <c r="M17">
-        <v>0.9092664589502135</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.729489343558924</v>
+        <v>0.2613597222904929</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.6210087005848877</v>
+      </c>
+      <c r="P17">
+        <v>0.8357843876172666</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.701708808547437</v>
+        <v>3.376728917827791</v>
       </c>
       <c r="C18">
-        <v>0.9795652215068174</v>
+        <v>0.6708188576442353</v>
       </c>
       <c r="D18">
-        <v>0.03636373397088022</v>
+        <v>0.02479212640976414</v>
       </c>
       <c r="E18">
-        <v>0.02570655757261697</v>
+        <v>0.03282766860558251</v>
       </c>
       <c r="F18">
-        <v>3.83994189329087</v>
+        <v>1.364227474462297</v>
       </c>
       <c r="G18">
-        <v>0.0008154434625490985</v>
+        <v>1.176426947278173</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001590432921735996</v>
       </c>
       <c r="J18">
-        <v>0.05373450986029926</v>
+        <v>0.7374059536180937</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.6560185212828742</v>
       </c>
       <c r="L18">
-        <v>0.2196946520164431</v>
+        <v>0.05925616542074152</v>
       </c>
       <c r="M18">
-        <v>0.8877589112248145</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.736922904942304</v>
+        <v>0.2561707087168941</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.6065100018768206</v>
+      </c>
+      <c r="P18">
+        <v>0.8450456876019388</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.653262637812361</v>
+        <v>3.346013431783831</v>
       </c>
       <c r="C19">
-        <v>0.9701943200542189</v>
+        <v>0.6656005926667774</v>
       </c>
       <c r="D19">
-        <v>0.0359906740265572</v>
+        <v>0.02475190531128035</v>
       </c>
       <c r="E19">
-        <v>0.02558606004278818</v>
+        <v>0.03284583044610234</v>
       </c>
       <c r="F19">
-        <v>3.818979295893882</v>
+        <v>1.357036637011177</v>
       </c>
       <c r="G19">
-        <v>0.0008163009914668568</v>
+        <v>1.168978651006526</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001758889157211563</v>
       </c>
       <c r="J19">
-        <v>0.05378449478880043</v>
+        <v>0.7343943887306921</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.6537036358945869</v>
       </c>
       <c r="L19">
-        <v>0.2182933442420136</v>
+        <v>0.05928395082827009</v>
       </c>
       <c r="M19">
-        <v>0.88051322245704</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.739494183898941</v>
+        <v>0.2547137114243583</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.6013743894134649</v>
+      </c>
+      <c r="P19">
+        <v>0.8483402247489593</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.872226254598161</v>
+        <v>3.474761103506125</v>
       </c>
       <c r="C20">
-        <v>1.012534502266078</v>
+        <v>0.6921471160420651</v>
       </c>
       <c r="D20">
-        <v>0.03768350868361381</v>
+        <v>0.02507292867272071</v>
       </c>
       <c r="E20">
-        <v>0.02613061452687226</v>
+        <v>0.03275658028812256</v>
       </c>
       <c r="F20">
-        <v>3.914044003506035</v>
+        <v>1.383465337651714</v>
       </c>
       <c r="G20">
-        <v>0.0008124477304866539</v>
+        <v>1.19618571788611</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001668467012320818</v>
       </c>
       <c r="J20">
-        <v>0.0535601713599112</v>
+        <v>0.7447921153296164</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.6600335413896801</v>
       </c>
       <c r="L20">
-        <v>0.2246307712643159</v>
+        <v>0.05919423769670651</v>
       </c>
       <c r="M20">
-        <v>0.9132646853689863</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.728139763491043</v>
+        <v>0.2622228586136117</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.6237742423033552</v>
+      </c>
+      <c r="P20">
+        <v>0.8340302293733366</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.626093842735656</v>
+        <v>3.912243402466402</v>
       </c>
       <c r="C21">
-        <v>1.158081473061429</v>
+        <v>0.7810526011601837</v>
       </c>
       <c r="D21">
-        <v>0.04364304365190463</v>
+        <v>0.02613063848540165</v>
       </c>
       <c r="E21">
-        <v>0.02800601225144206</v>
+        <v>0.03247565389498974</v>
       </c>
       <c r="F21">
-        <v>4.247269967680552</v>
+        <v>1.477010493239263</v>
       </c>
       <c r="G21">
-        <v>0.000799585404969163</v>
+        <v>1.292327794736508</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001920332171117423</v>
       </c>
       <c r="J21">
-        <v>0.05281710568186515</v>
+        <v>0.7821958871533354</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.6839480145666528</v>
       </c>
       <c r="L21">
-        <v>0.2465162931254383</v>
+        <v>0.05889275801300187</v>
       </c>
       <c r="M21">
-        <v>1.02607341947656</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.694005520302184</v>
+        <v>0.287578111921249</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.6997315703672982</v>
+      </c>
+      <c r="P21">
+        <v>0.787092968384453</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.134377677253212</v>
+        <v>4.205018114206155</v>
       </c>
       <c r="C22">
-        <v>1.256070625891539</v>
+        <v>0.8380926409436711</v>
       </c>
       <c r="D22">
-        <v>0.04777571137579173</v>
+        <v>0.02676547013732744</v>
       </c>
       <c r="E22">
-        <v>0.02927311247703912</v>
+        <v>0.03230887176650021</v>
       </c>
       <c r="F22">
-        <v>4.476717430454016</v>
+        <v>1.543718314539817</v>
       </c>
       <c r="G22">
-        <v>0.0007912209115264341</v>
+        <v>1.360843531972762</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.002408287498268713</v>
       </c>
       <c r="J22">
-        <v>0.05233925358669778</v>
+        <v>0.8095493171257147</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.7028913770060967</v>
       </c>
       <c r="L22">
-        <v>0.2613185120559933</v>
+        <v>0.05868356498463889</v>
       </c>
       <c r="M22">
-        <v>1.10216640484974</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.674985383400667</v>
+        <v>0.3039852281654731</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.7501681875676027</v>
+      </c>
+      <c r="P22">
+        <v>0.7571157494650329</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.861530029476683</v>
+        <v>4.053971079870792</v>
       </c>
       <c r="C23">
-        <v>1.2034811118059</v>
+        <v>0.8059028262842389</v>
       </c>
       <c r="D23">
-        <v>0.0455458263810371</v>
+        <v>0.02634830866623616</v>
       </c>
       <c r="E23">
-        <v>0.02859253789873151</v>
+        <v>0.03240119594908941</v>
       </c>
       <c r="F23">
-        <v>4.353095471626716</v>
+        <v>1.511286434998908</v>
       </c>
       <c r="G23">
-        <v>0.0007956828171499722</v>
+        <v>1.327665332619858</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001795301812308914</v>
       </c>
       <c r="J23">
-        <v>0.05259358840641015</v>
+        <v>0.7966388819433519</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.6949937507589681</v>
       </c>
       <c r="L23">
-        <v>0.2533687174993418</v>
+        <v>0.05877388733173206</v>
       </c>
       <c r="M23">
-        <v>1.061316767569515</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.68481540116062</v>
+        <v>0.2946799668323195</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.7236257375943751</v>
+      </c>
+      <c r="P23">
+        <v>0.7727322044473723</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.860138244826373</v>
+        <v>3.475751527953207</v>
       </c>
       <c r="C24">
-        <v>1.010197981937495</v>
+        <v>0.6881394015826174</v>
       </c>
       <c r="D24">
-        <v>0.03758960604901773</v>
+        <v>0.0249387897737634</v>
       </c>
       <c r="E24">
-        <v>0.02610055510851605</v>
+        <v>0.03276846744094342</v>
       </c>
       <c r="F24">
-        <v>3.908774729967519</v>
+        <v>1.387126182618204</v>
       </c>
       <c r="G24">
-        <v>0.0008126589672826087</v>
+        <v>1.200118886454064</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001178433918183508</v>
       </c>
       <c r="J24">
-        <v>0.05357244977005848</v>
+        <v>0.7469378040883186</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.6631840227033052</v>
       </c>
       <c r="L24">
-        <v>0.2242806556564432</v>
+        <v>0.05916976666007479</v>
       </c>
       <c r="M24">
-        <v>0.9114564329658208</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.72874888787517</v>
+        <v>0.2610275492136509</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6231627069705539</v>
+      </c>
+      <c r="P24">
+        <v>0.8344324633879978</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.8343342039596</v>
+        <v>2.856434008704014</v>
       </c>
       <c r="C25">
-        <v>0.8114668731108736</v>
+        <v>0.5634843086002093</v>
       </c>
       <c r="D25">
-        <v>0.02981278770804607</v>
+        <v>0.02350770391839063</v>
       </c>
       <c r="E25">
-        <v>0.02354563040794755</v>
+        <v>0.03321492176183072</v>
       </c>
       <c r="F25">
-        <v>3.471180851288665</v>
+        <v>1.261134367800082</v>
       </c>
       <c r="G25">
-        <v>0.000831278924377223</v>
+        <v>1.069979099473485</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.002915815171593117</v>
       </c>
       <c r="J25">
-        <v>0.05466265770465828</v>
+        <v>0.6973883402045828</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6324657132090081</v>
       </c>
       <c r="L25">
-        <v>0.1946937289135917</v>
+        <v>0.05963606150787371</v>
       </c>
       <c r="M25">
-        <v>0.7580992453980286</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.788435054670956</v>
+        <v>0.2261375196311093</v>
       </c>
       <c r="O25">
+        <v>0.5161046397980158</v>
+      </c>
+      <c r="P25">
+        <v>0.9050737432763647</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_43/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_43/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.41540107502459</v>
+        <v>2.280941774246116</v>
       </c>
       <c r="C2">
-        <v>0.4692094980470074</v>
+        <v>0.5051709466551415</v>
       </c>
       <c r="D2">
-        <v>0.02233917140410568</v>
+        <v>0.02531891030853473</v>
       </c>
       <c r="E2">
-        <v>0.03359695178357647</v>
+        <v>0.0327244393529596</v>
       </c>
       <c r="F2">
-        <v>1.182263303851684</v>
+        <v>1.071968779322731</v>
       </c>
       <c r="G2">
-        <v>0.9880776741394044</v>
+        <v>0.8594921441499679</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.005199643555439337</v>
+        <v>0.00361861495573379</v>
       </c>
       <c r="J2">
-        <v>0.6682294916836184</v>
+        <v>0.6341839746145439</v>
       </c>
       <c r="K2">
-        <v>0.6180910069265195</v>
+        <v>0.533669066937577</v>
       </c>
       <c r="L2">
-        <v>0.05997413315319733</v>
+        <v>0.2391901965960557</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1650989356069665</v>
       </c>
       <c r="N2">
-        <v>0.2002514756828688</v>
+        <v>0.05765070559476726</v>
       </c>
       <c r="O2">
-        <v>0.4390769964082182</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9600360791769003</v>
+        <v>0.2177327668784557</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4282823669402234</v>
+      </c>
+      <c r="R2">
+        <v>0.9307963899726772</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.110114656404505</v>
+        <v>1.996885605462126</v>
       </c>
       <c r="C3">
-        <v>0.4083137740597635</v>
+        <v>0.4369003722799505</v>
       </c>
       <c r="D3">
-        <v>0.02169421309920061</v>
+        <v>0.02452716166999025</v>
       </c>
       <c r="E3">
-        <v>0.03387360634952852</v>
+        <v>0.03306204784884598</v>
       </c>
       <c r="F3">
-        <v>1.127267915951208</v>
+        <v>1.026577173607542</v>
       </c>
       <c r="G3">
-        <v>0.9304367481960156</v>
+        <v>0.8154671846288863</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.00813024651005545</v>
+        <v>0.005663386493106159</v>
       </c>
       <c r="J3">
-        <v>0.6476283227984965</v>
+        <v>0.612856552512568</v>
       </c>
       <c r="K3">
-        <v>0.6066002814917937</v>
+        <v>0.5277285678241768</v>
       </c>
       <c r="L3">
-        <v>0.06024652440987666</v>
+        <v>0.2415928918577457</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1594005408578774</v>
       </c>
       <c r="N3">
-        <v>0.1839904110057802</v>
+        <v>0.05762525850750766</v>
       </c>
       <c r="O3">
-        <v>0.3867171111738514</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.999441098167738</v>
+        <v>0.1995144383136846</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3773029218323884</v>
+      </c>
+      <c r="R3">
+        <v>0.96264724543407</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.922727456682367</v>
+        <v>1.821963749969598</v>
       </c>
       <c r="C4">
-        <v>0.3712538072196878</v>
+        <v>0.3954016447760296</v>
       </c>
       <c r="D4">
-        <v>0.0213206848931371</v>
+        <v>0.02407348253320052</v>
       </c>
       <c r="E4">
-        <v>0.03405503879536942</v>
+        <v>0.03328248769562003</v>
       </c>
       <c r="F4">
-        <v>1.094766513949921</v>
+        <v>0.9995984966989226</v>
       </c>
       <c r="G4">
-        <v>0.8961469459973443</v>
+        <v>0.7894234689823776</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0103867440150851</v>
+        <v>0.00727191512803893</v>
       </c>
       <c r="J4">
-        <v>0.6356522933052844</v>
+        <v>0.5999327607901677</v>
       </c>
       <c r="K4">
-        <v>0.6001126843444382</v>
+        <v>0.5244251724014894</v>
       </c>
       <c r="L4">
-        <v>0.06042352726433453</v>
+        <v>0.2430052486032253</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1567587307504681</v>
       </c>
       <c r="N4">
-        <v>0.1742841043979766</v>
+        <v>0.05762189151865549</v>
       </c>
       <c r="O4">
-        <v>0.3547120434072966</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.024537377598934</v>
+        <v>0.1886406472739353</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3460691020298583</v>
+      </c>
+      <c r="R4">
+        <v>0.9831238512927563</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.845083839730961</v>
+        <v>1.74931857340809</v>
       </c>
       <c r="C5">
-        <v>0.3566306211367021</v>
+        <v>0.3790069217698715</v>
       </c>
       <c r="D5">
-        <v>0.02119328330930514</v>
+        <v>0.02391780551354472</v>
       </c>
       <c r="E5">
-        <v>0.03413041336484746</v>
+        <v>0.03337449353786076</v>
       </c>
       <c r="F5">
-        <v>1.080981171999348</v>
+        <v>0.988027343501841</v>
       </c>
       <c r="G5">
-        <v>0.8815418694175037</v>
+        <v>0.778223978490729</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01150356534888841</v>
+        <v>0.008110058437694079</v>
       </c>
       <c r="J5">
-        <v>0.6304835145116243</v>
+        <v>0.5942715627274708</v>
       </c>
       <c r="K5">
-        <v>0.5970225648862382</v>
+        <v>0.5226372133876609</v>
       </c>
       <c r="L5">
-        <v>0.06050090631536342</v>
+        <v>0.2433221742673304</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1557429527182812</v>
       </c>
       <c r="N5">
-        <v>0.1705229734990752</v>
+        <v>0.05762897090865504</v>
       </c>
       <c r="O5">
-        <v>0.3416048121534772</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.034983449652739</v>
+        <v>0.1844143118823354</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3332607211786325</v>
+      </c>
+      <c r="R5">
+        <v>0.9917673011951038</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.83062835127842</v>
+        <v>1.735751466876906</v>
       </c>
       <c r="C6">
-        <v>0.3547053365721524</v>
+        <v>0.3768066290062677</v>
       </c>
       <c r="D6">
-        <v>0.02119613769906259</v>
+        <v>0.02391843228875601</v>
       </c>
       <c r="E6">
-        <v>0.03414135707634669</v>
+        <v>0.03338862809312598</v>
       </c>
       <c r="F6">
-        <v>1.07768120493823</v>
+        <v>0.9851550467403953</v>
       </c>
       <c r="G6">
-        <v>0.8780432743476609</v>
+        <v>0.7753781713065422</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01180992127111669</v>
+        <v>0.008382627704805579</v>
       </c>
       <c r="J6">
-        <v>0.6290852750462079</v>
+        <v>0.5928028533767531</v>
       </c>
       <c r="K6">
-        <v>0.5958061041585125</v>
+        <v>0.5217055873377774</v>
       </c>
       <c r="L6">
-        <v>0.06051745241259265</v>
+        <v>0.243078294247578</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1554018710683174</v>
       </c>
       <c r="N6">
-        <v>0.1700590146812715</v>
+        <v>0.0576370638856547</v>
       </c>
       <c r="O6">
-        <v>0.3393121716458936</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.036731409586247</v>
+        <v>0.1838760104173005</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3310197152793535</v>
+      </c>
+      <c r="R6">
+        <v>0.9933083917418273</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.917396888271895</v>
+        <v>1.815102349346262</v>
       </c>
       <c r="C7">
-        <v>0.3724221903458158</v>
+        <v>0.3956004809845979</v>
       </c>
       <c r="D7">
-        <v>0.02138345981651568</v>
+        <v>0.02422683005337234</v>
       </c>
       <c r="E7">
-        <v>0.03405136443400647</v>
+        <v>0.0332857399856939</v>
       </c>
       <c r="F7">
-        <v>1.09176763755562</v>
+        <v>0.9951560729666866</v>
       </c>
       <c r="G7">
-        <v>0.8929720210551153</v>
+        <v>0.7902257179437839</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.01069508323151602</v>
+        <v>0.007623854243075989</v>
       </c>
       <c r="J7">
-        <v>0.6340805611665132</v>
+        <v>0.5916149993989848</v>
       </c>
       <c r="K7">
-        <v>0.5981269028379472</v>
+        <v>0.5218792985967013</v>
       </c>
       <c r="L7">
-        <v>0.06043480355108155</v>
+        <v>0.2418647663081543</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1559932319524577</v>
       </c>
       <c r="N7">
-        <v>0.174661108143205</v>
+        <v>0.05763200215769615</v>
       </c>
       <c r="O7">
-        <v>0.3542112962953752</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>1.024694608055796</v>
+        <v>0.1889561314484496</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.345296233506879</v>
+      </c>
+      <c r="R7">
+        <v>0.9836635713641115</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.304370155592494</v>
+        <v>2.171632601905515</v>
       </c>
       <c r="C8">
-        <v>0.4499614228524251</v>
+        <v>0.4800808657569462</v>
       </c>
       <c r="D8">
-        <v>0.02219703262630546</v>
+        <v>0.02541821458781612</v>
       </c>
       <c r="E8">
-        <v>0.03368407304201915</v>
+        <v>0.03285210501094088</v>
       </c>
       <c r="F8">
-        <v>1.159296259710914</v>
+        <v>1.047158381866609</v>
       </c>
       <c r="G8">
-        <v>0.9640087834418694</v>
+        <v>0.8528220266893811</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.006455741120043434</v>
+        <v>0.004664883577803813</v>
       </c>
       <c r="J8">
-        <v>0.6589921563077752</v>
+        <v>0.6025436541308551</v>
       </c>
       <c r="K8">
-        <v>0.6114346756939</v>
+        <v>0.5266990402514296</v>
       </c>
       <c r="L8">
-        <v>0.06008197675277405</v>
+        <v>0.2379701390895335</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1613669573067149</v>
       </c>
       <c r="N8">
-        <v>0.19515230087503</v>
+        <v>0.05763833217568504</v>
       </c>
       <c r="O8">
-        <v>0.4205543464738</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9735312907596505</v>
+        <v>0.2117495800639801</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4093071659787313</v>
+      </c>
+      <c r="R8">
+        <v>0.94267233368425</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.072537110098381</v>
+        <v>2.881285288098013</v>
       </c>
       <c r="C9">
-        <v>0.6026965202676422</v>
+        <v>0.6506255756961821</v>
       </c>
       <c r="D9">
-        <v>0.02386325744770446</v>
+        <v>0.02758202594177206</v>
       </c>
       <c r="E9">
-        <v>0.03306530136765351</v>
+        <v>0.03209231181993033</v>
       </c>
       <c r="F9">
-        <v>1.307692274382347</v>
+        <v>1.167563567146829</v>
       </c>
       <c r="G9">
-        <v>1.118314751934776</v>
+        <v>0.9756690000155288</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.001593776707902173</v>
+        <v>0.001314896714072589</v>
       </c>
       <c r="J9">
-        <v>0.716285097022876</v>
+        <v>0.6523073635513583</v>
       </c>
       <c r="K9">
-        <v>0.6458590812705438</v>
+        <v>0.5450169446864024</v>
       </c>
       <c r="L9">
-        <v>0.05944719015742184</v>
+        <v>0.2324316823164985</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1807487975098745</v>
       </c>
       <c r="N9">
-        <v>0.2369442128727854</v>
+        <v>0.05774439106556706</v>
       </c>
       <c r="O9">
-        <v>0.5526266890976004</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.880460643238191</v>
+        <v>0.2585378135885747</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5371533908619455</v>
+      </c>
+      <c r="R9">
+        <v>0.8686311308720605</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.637225214726016</v>
+        <v>3.388658967155607</v>
       </c>
       <c r="C10">
-        <v>0.7183346643967923</v>
+        <v>0.7736470669562721</v>
       </c>
       <c r="D10">
-        <v>0.02524331678064584</v>
+        <v>0.02990726967008683</v>
       </c>
       <c r="E10">
-        <v>0.03266895470740683</v>
+        <v>0.03163261346556479</v>
       </c>
       <c r="F10">
-        <v>1.423283814291764</v>
+        <v>1.250722466801747</v>
       </c>
       <c r="G10">
-        <v>1.237426778851443</v>
+        <v>1.093392252824344</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.0008933133450828024</v>
+        <v>0.001097988944791517</v>
       </c>
       <c r="J10">
-        <v>0.7617487021731222</v>
+        <v>0.6511109163543125</v>
       </c>
       <c r="K10">
-        <v>0.6736583581242783</v>
+        <v>0.555358218868264</v>
       </c>
       <c r="L10">
-        <v>0.0590411089064844</v>
+        <v>0.2262243378016464</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1974164613700431</v>
       </c>
       <c r="N10">
-        <v>0.269565756200052</v>
+        <v>0.05785302504104806</v>
       </c>
       <c r="O10">
-        <v>0.6506942734669039</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8171160946787985</v>
+        <v>0.2945947493143848</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6298751434803975</v>
+      </c>
+      <c r="R10">
+        <v>0.8211186703561353</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.887664437526212</v>
+        <v>3.593202242723692</v>
       </c>
       <c r="C11">
-        <v>0.7740451040542098</v>
+        <v>0.8220008898655067</v>
       </c>
       <c r="D11">
-        <v>0.02600582618142511</v>
+        <v>0.03210577199945774</v>
       </c>
       <c r="E11">
-        <v>0.0324963799068485</v>
+        <v>0.03150140561131687</v>
       </c>
       <c r="F11">
-        <v>1.47325671118513</v>
+        <v>1.268677502321594</v>
       </c>
       <c r="G11">
-        <v>1.288562069991855</v>
+        <v>1.184731563680174</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.001642796620050291</v>
+        <v>0.001959908021291312</v>
       </c>
       <c r="J11">
-        <v>0.7810001147772994</v>
+        <v>0.5860716301141622</v>
       </c>
       <c r="K11">
-        <v>0.6840013522040636</v>
+        <v>0.5501427207306619</v>
       </c>
       <c r="L11">
-        <v>0.05889709554440614</v>
+        <v>0.219779029662174</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.201712767989477</v>
       </c>
       <c r="N11">
-        <v>0.2855446278176288</v>
+        <v>0.0578808274664997</v>
       </c>
       <c r="O11">
-        <v>0.6950856493323769</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.7898715094222801</v>
+        <v>0.3114537494384564</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6686075567677676</v>
+      </c>
+      <c r="R11">
+        <v>0.8049069338134274</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.986571634784241</v>
+        <v>3.671818312198354</v>
       </c>
       <c r="C12">
-        <v>0.7940442091570503</v>
+        <v>0.8377831312178898</v>
       </c>
       <c r="D12">
-        <v>0.02624325380783077</v>
+        <v>0.03302328942250909</v>
       </c>
       <c r="E12">
-        <v>0.03243643460779855</v>
+        <v>0.03146965476451746</v>
       </c>
       <c r="F12">
-        <v>1.494974246711024</v>
+        <v>1.275754197872317</v>
       </c>
       <c r="G12">
-        <v>1.310852257610151</v>
+        <v>1.227775003844897</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.001826676868907917</v>
+        <v>0.002107654515653756</v>
       </c>
       <c r="J12">
-        <v>0.7897660640363426</v>
+        <v>0.5566239001926334</v>
       </c>
       <c r="K12">
-        <v>0.6897455697600492</v>
+        <v>0.548722056159356</v>
       </c>
       <c r="L12">
-        <v>0.05883003647080898</v>
+        <v>0.2175555032209076</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2036241317112299</v>
       </c>
       <c r="N12">
-        <v>0.291286810909213</v>
+        <v>0.05786118436821575</v>
       </c>
       <c r="O12">
-        <v>0.7122540223899776</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.7795414383407078</v>
+        <v>0.317426278152368</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6831883324948578</v>
+      </c>
+      <c r="R12">
+        <v>0.7989598587882796</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.966050981142246</v>
+        <v>3.655740413720366</v>
       </c>
       <c r="C13">
-        <v>0.7894830798135217</v>
+        <v>0.8341865789221288</v>
       </c>
       <c r="D13">
-        <v>0.02618065837271999</v>
+        <v>0.03280492085670161</v>
       </c>
       <c r="E13">
-        <v>0.0324499115612954</v>
+        <v>0.03147628824662807</v>
       </c>
       <c r="F13">
-        <v>1.490780052138192</v>
+        <v>1.274764645968204</v>
       </c>
       <c r="G13">
-        <v>1.306566503707245</v>
+        <v>1.218720428596896</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.001738751411566319</v>
+        <v>0.002019728534808252</v>
       </c>
       <c r="J13">
-        <v>0.7881350061672947</v>
+        <v>0.5633954031044937</v>
       </c>
       <c r="K13">
-        <v>0.6888421278381429</v>
+        <v>0.5493535733361696</v>
       </c>
       <c r="L13">
-        <v>0.05884138586571552</v>
+        <v>0.2181462415073909</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2033426013884778</v>
       </c>
       <c r="N13">
-        <v>0.2899712772106113</v>
+        <v>0.05786083300347933</v>
       </c>
       <c r="O13">
-        <v>0.7086146989096989</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.781716046931944</v>
+        <v>0.3160640729209376</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6801233625253076</v>
+      </c>
+      <c r="R13">
+        <v>0.8000924753370313</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.896132669925578</v>
+        <v>3.6000353197349</v>
       </c>
       <c r="C14">
-        <v>0.7755824750135787</v>
+        <v>0.8232165111058976</v>
       </c>
       <c r="D14">
-        <v>0.02602048334372142</v>
+        <v>0.0321723546160797</v>
       </c>
       <c r="E14">
-        <v>0.03249168787533396</v>
+        <v>0.03149869062489485</v>
       </c>
       <c r="F14">
-        <v>1.475248182441845</v>
+        <v>1.269489533467492</v>
       </c>
       <c r="G14">
-        <v>1.290614147167446</v>
+        <v>1.188357018699008</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.001636883047889448</v>
+        <v>0.001947724925571492</v>
       </c>
       <c r="J14">
-        <v>0.7818301850288094</v>
+        <v>0.58384367977078</v>
       </c>
       <c r="K14">
-        <v>0.6846154772424242</v>
+        <v>0.5501657001918403</v>
       </c>
       <c r="L14">
-        <v>0.05889027091537002</v>
+        <v>0.2196444712508807</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.2019255087406435</v>
       </c>
       <c r="N14">
-        <v>0.28598347308359</v>
+        <v>0.05787727797810582</v>
       </c>
       <c r="O14">
-        <v>0.6965227155959894</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.7890004218786579</v>
+        <v>0.3119128770882327</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6698394821253757</v>
+      </c>
+      <c r="R14">
+        <v>0.8043552971328936</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.851779659207921</v>
+        <v>3.564126740085101</v>
       </c>
       <c r="C15">
-        <v>0.767573193888353</v>
+        <v>0.8168347808912699</v>
       </c>
       <c r="D15">
-        <v>0.02594516500657917</v>
+        <v>0.03183161656438571</v>
       </c>
       <c r="E15">
-        <v>0.0325162376890038</v>
+        <v>0.03151350137234799</v>
       </c>
       <c r="F15">
-        <v>1.464798164015903</v>
+        <v>1.265116849102469</v>
       </c>
       <c r="G15">
-        <v>1.279843431410768</v>
+        <v>1.169603255043342</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.001679270901833618</v>
+        <v>0.002022732063880817</v>
       </c>
       <c r="J15">
-        <v>0.7774699979223101</v>
+        <v>0.5952371192540653</v>
       </c>
       <c r="K15">
-        <v>0.6813760611257464</v>
+        <v>0.5499791657865387</v>
       </c>
       <c r="L15">
-        <v>0.05892631664518611</v>
+        <v>0.2203247844514742</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.200789700459282</v>
       </c>
       <c r="N15">
-        <v>0.2836989717678051</v>
+        <v>0.057896064795397</v>
       </c>
       <c r="O15">
-        <v>0.6890043460371942</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.7935664196164929</v>
+        <v>0.3095185854291742</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.6633763107571227</v>
+      </c>
+      <c r="R15">
+        <v>0.807277115723636</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.607869134151656</v>
+        <v>3.362694028519002</v>
       </c>
       <c r="C16">
-        <v>0.7188089515631475</v>
+        <v>0.7745706514584754</v>
       </c>
       <c r="D16">
-        <v>0.02538075718502597</v>
+        <v>0.0299986443754463</v>
       </c>
       <c r="E16">
-        <v>0.03266931338566093</v>
+        <v>0.03163429048714173</v>
       </c>
       <c r="F16">
-        <v>1.411814441560907</v>
+        <v>1.241786989857388</v>
       </c>
       <c r="G16">
-        <v>1.22536933596237</v>
+        <v>1.080149507964521</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.001580510165785753</v>
+        <v>0.001920130150054433</v>
       </c>
       <c r="J16">
-        <v>0.7561314326523814</v>
+        <v>0.6506399987014078</v>
       </c>
       <c r="K16">
-        <v>0.6673610275161863</v>
+        <v>0.5507388436612359</v>
       </c>
       <c r="L16">
-        <v>0.05909857510996197</v>
+        <v>0.224869211682396</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1951822558673939</v>
       </c>
       <c r="N16">
-        <v>0.2697862245895521</v>
+        <v>0.0579291623744691</v>
       </c>
       <c r="O16">
-        <v>0.6467994999066065</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8195493441362416</v>
+        <v>0.2947716745721465</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.6263324051462575</v>
+      </c>
+      <c r="R16">
+        <v>0.8239399381614092</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.458571906326199</v>
+        <v>3.234935903130747</v>
       </c>
       <c r="C17">
-        <v>0.6890876338449345</v>
+        <v>0.7464768640991792</v>
       </c>
       <c r="D17">
-        <v>0.02504154163756311</v>
+        <v>0.02910809199705255</v>
       </c>
       <c r="E17">
-        <v>0.03276682720644231</v>
+        <v>0.03172973150270697</v>
       </c>
       <c r="F17">
-        <v>1.379893157635053</v>
+        <v>1.224156223620284</v>
       </c>
       <c r="G17">
-        <v>1.192499228445669</v>
+        <v>1.03498850446644</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.001709817430739946</v>
+        <v>0.001991357744211442</v>
       </c>
       <c r="J17">
-        <v>0.7433371792839267</v>
+        <v>0.6722820488352141</v>
       </c>
       <c r="K17">
-        <v>0.659021758280673</v>
+        <v>0.5496862870262476</v>
       </c>
       <c r="L17">
-        <v>0.05920701910413761</v>
+        <v>0.2271091646388044</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1912927520062624</v>
       </c>
       <c r="N17">
-        <v>0.2613597222904929</v>
+        <v>0.05793598693791679</v>
       </c>
       <c r="O17">
-        <v>0.6210087005848877</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8357843876172666</v>
+        <v>0.2856775475074045</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.6029824458213255</v>
+      </c>
+      <c r="R17">
+        <v>0.8352289944322493</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.376728917827791</v>
+        <v>3.163692381880423</v>
       </c>
       <c r="C18">
-        <v>0.6708188576442353</v>
+        <v>0.7282602330054999</v>
       </c>
       <c r="D18">
-        <v>0.02479212640976414</v>
+        <v>0.0286094758360349</v>
       </c>
       <c r="E18">
-        <v>0.03282766860558251</v>
+        <v>0.0317935924799041</v>
       </c>
       <c r="F18">
-        <v>1.364227474462297</v>
+        <v>1.215130335229347</v>
       </c>
       <c r="G18">
-        <v>1.176426947278173</v>
+        <v>1.014689542723787</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.001590432921735996</v>
+        <v>0.001769715244860137</v>
       </c>
       <c r="J18">
-        <v>0.7374059536180937</v>
+        <v>0.6810906740081464</v>
       </c>
       <c r="K18">
-        <v>0.6560185212828742</v>
+        <v>0.5500201321701894</v>
       </c>
       <c r="L18">
-        <v>0.05925616542074152</v>
+        <v>0.2287360898457216</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1894792080231547</v>
       </c>
       <c r="N18">
-        <v>0.2561707087168941</v>
+        <v>0.05791105327985768</v>
       </c>
       <c r="O18">
-        <v>0.6065100018768206</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8450456876019388</v>
+        <v>0.2800430953516724</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5896243055501103</v>
+      </c>
+      <c r="R18">
+        <v>0.8416004628356752</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.346013431783831</v>
+        <v>3.136469292186689</v>
       </c>
       <c r="C19">
-        <v>0.6656005926667774</v>
+        <v>0.7229623283937769</v>
       </c>
       <c r="D19">
-        <v>0.02475190531128035</v>
+        <v>0.02850291090746992</v>
       </c>
       <c r="E19">
-        <v>0.03284583044610234</v>
+        <v>0.03181425592264076</v>
       </c>
       <c r="F19">
-        <v>1.357036637011177</v>
+        <v>1.210119846189244</v>
       </c>
       <c r="G19">
-        <v>1.168978651006526</v>
+        <v>1.006501100301207</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.001758889157211563</v>
+        <v>0.001939385693728646</v>
       </c>
       <c r="J19">
-        <v>0.7343943887306921</v>
+        <v>0.6822902675819478</v>
       </c>
       <c r="K19">
-        <v>0.6537036358945869</v>
+        <v>0.5489042893842964</v>
       </c>
       <c r="L19">
-        <v>0.05928395082827009</v>
+        <v>0.2288338150457037</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1884011046953127</v>
       </c>
       <c r="N19">
-        <v>0.2547137114243583</v>
+        <v>0.05791996545942801</v>
       </c>
       <c r="O19">
-        <v>0.6013743894134649</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8483402247489593</v>
+        <v>0.2784328720199483</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5848416323152463</v>
+      </c>
+      <c r="R19">
+        <v>0.8441805453659406</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.474761103506125</v>
+        <v>3.248980061557688</v>
       </c>
       <c r="C20">
-        <v>0.6921471160420651</v>
+        <v>0.7494458549295757</v>
       </c>
       <c r="D20">
-        <v>0.02507292867272071</v>
+        <v>0.02918959211499583</v>
       </c>
       <c r="E20">
-        <v>0.03275658028812256</v>
+        <v>0.03171908096407983</v>
       </c>
       <c r="F20">
-        <v>1.383465337651714</v>
+        <v>1.22633370991116</v>
       </c>
       <c r="G20">
-        <v>1.19618571788611</v>
+        <v>1.039639951025933</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.001668467012320818</v>
+        <v>0.001954006480939796</v>
       </c>
       <c r="J20">
-        <v>0.7447921153296164</v>
+        <v>0.6705697721270667</v>
       </c>
       <c r="K20">
-        <v>0.6600335413896801</v>
+        <v>0.5499698902441992</v>
       </c>
       <c r="L20">
-        <v>0.05919423769670651</v>
+        <v>0.2269338104533851</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1917674582679005</v>
       </c>
       <c r="N20">
-        <v>0.2622228586136117</v>
+        <v>0.05793392066750691</v>
       </c>
       <c r="O20">
-        <v>0.6237742423033552</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8340302293733366</v>
+        <v>0.2866167114515861</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6055136792087481</v>
+      </c>
+      <c r="R20">
+        <v>0.8339516605983022</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.912243402466402</v>
+        <v>3.605528984774253</v>
       </c>
       <c r="C21">
-        <v>0.7810526011601837</v>
+        <v>0.8241025042310923</v>
       </c>
       <c r="D21">
-        <v>0.02613063848540165</v>
+        <v>0.03278250205681132</v>
       </c>
       <c r="E21">
-        <v>0.03247565389498974</v>
+        <v>0.03151487295759259</v>
       </c>
       <c r="F21">
-        <v>1.477010493239263</v>
+        <v>1.262571989028672</v>
       </c>
       <c r="G21">
-        <v>1.292327794736508</v>
+        <v>1.208867707541117</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.001920332171117423</v>
+        <v>0.002273238614744599</v>
       </c>
       <c r="J21">
-        <v>0.7821958871533354</v>
+        <v>0.5559492413774763</v>
       </c>
       <c r="K21">
-        <v>0.6839480145666528</v>
+        <v>0.5456203735587835</v>
       </c>
       <c r="L21">
-        <v>0.05889275801300187</v>
+        <v>0.2177051614469399</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2005877879761542</v>
       </c>
       <c r="N21">
-        <v>0.287578111921249</v>
+        <v>0.05787103777680613</v>
       </c>
       <c r="O21">
-        <v>0.6997315703672982</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.787092968384453</v>
+        <v>0.3133094138313908</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.6714486704239846</v>
+      </c>
+      <c r="R21">
+        <v>0.8048488476436049</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.205018114206155</v>
+        <v>3.840517523118024</v>
       </c>
       <c r="C22">
-        <v>0.8380926409436711</v>
+        <v>0.8699808761074905</v>
       </c>
       <c r="D22">
-        <v>0.02676547013732744</v>
+        <v>0.03533650108815323</v>
       </c>
       <c r="E22">
-        <v>0.03230887176650021</v>
+        <v>0.03143544448957547</v>
       </c>
       <c r="F22">
-        <v>1.543718314539817</v>
+        <v>1.287974385626271</v>
       </c>
       <c r="G22">
-        <v>1.360843531972762</v>
+        <v>1.334898043341667</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.002408287498268713</v>
+        <v>0.002530724814664431</v>
       </c>
       <c r="J22">
-        <v>0.8095493171257147</v>
+        <v>0.4838594697469745</v>
       </c>
       <c r="K22">
-        <v>0.7028913770060967</v>
+        <v>0.5441540346827693</v>
       </c>
       <c r="L22">
-        <v>0.05868356498463889</v>
+        <v>0.2122130388597441</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2073427421001668</v>
       </c>
       <c r="N22">
-        <v>0.3039852281654731</v>
+        <v>0.05780460091014206</v>
       </c>
       <c r="O22">
-        <v>0.7501681875676027</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.7571157494650329</v>
+        <v>0.3304461347206313</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.7145881421139819</v>
+      </c>
+      <c r="R22">
+        <v>0.7872081434901474</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.053971079870792</v>
+        <v>3.725114432326905</v>
       </c>
       <c r="C23">
-        <v>0.8059028262842389</v>
+        <v>0.8465011883867817</v>
       </c>
       <c r="D23">
-        <v>0.02634830866623616</v>
+        <v>0.03360060758056704</v>
       </c>
       <c r="E23">
-        <v>0.03240119594908941</v>
+        <v>0.0314568663542768</v>
       </c>
       <c r="F23">
-        <v>1.511286434998908</v>
+        <v>1.281717233573957</v>
       </c>
       <c r="G23">
-        <v>1.327665332619858</v>
+        <v>1.259607542885107</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.001795301812308914</v>
+        <v>0.002001477294731657</v>
       </c>
       <c r="J23">
-        <v>0.7966388819433519</v>
+        <v>0.5370765570263387</v>
       </c>
       <c r="K23">
-        <v>0.6949937507589681</v>
+        <v>0.548801175779893</v>
       </c>
       <c r="L23">
-        <v>0.05877388733173206</v>
+        <v>0.2164674005614877</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2052863370083813</v>
       </c>
       <c r="N23">
-        <v>0.2946799668323195</v>
+        <v>0.0578255403480803</v>
       </c>
       <c r="O23">
-        <v>0.7236257375943751</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.7727322044473723</v>
+        <v>0.3209340062920063</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.6927516367460953</v>
+      </c>
+      <c r="R23">
+        <v>0.7948094960706484</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.475751527953207</v>
+        <v>3.250481961558307</v>
       </c>
       <c r="C24">
-        <v>0.6881394015826174</v>
+        <v>0.7453715386998283</v>
       </c>
       <c r="D24">
-        <v>0.0249387897737634</v>
+        <v>0.02901595108891186</v>
       </c>
       <c r="E24">
-        <v>0.03276846744094342</v>
+        <v>0.03172930287911868</v>
       </c>
       <c r="F24">
-        <v>1.387126182618204</v>
+        <v>1.230174925693134</v>
       </c>
       <c r="G24">
-        <v>1.200118886454064</v>
+        <v>1.042635110986794</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.001178433918183508</v>
+        <v>0.001361633202431989</v>
       </c>
       <c r="J24">
-        <v>0.7469378040883186</v>
+        <v>0.6738870379820128</v>
       </c>
       <c r="K24">
-        <v>0.6631840227033052</v>
+        <v>0.5529622364729931</v>
       </c>
       <c r="L24">
-        <v>0.05916976666007479</v>
+        <v>0.2281492195696302</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1927695735144148</v>
       </c>
       <c r="N24">
-        <v>0.2610275492136509</v>
+        <v>0.05788462615775813</v>
       </c>
       <c r="O24">
-        <v>0.6231627069705539</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8344324633879978</v>
+        <v>0.28536986362802</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6049844302918572</v>
+      </c>
+      <c r="R24">
+        <v>0.8335049651937219</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.856434008704014</v>
+        <v>2.684612877056566</v>
       </c>
       <c r="C25">
-        <v>0.5634843086002093</v>
+        <v>0.6080916975019761</v>
       </c>
       <c r="D25">
-        <v>0.02350770391839063</v>
+        <v>0.02697363223536087</v>
       </c>
       <c r="E25">
-        <v>0.03321492176183072</v>
+        <v>0.03227290692922824</v>
       </c>
       <c r="F25">
-        <v>1.261134367800082</v>
+        <v>1.131718446149776</v>
       </c>
       <c r="G25">
-        <v>1.069979099473485</v>
+        <v>0.9310910044512326</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.002915815171593117</v>
+        <v>0.002406617005959788</v>
       </c>
       <c r="J25">
-        <v>0.6973883402045828</v>
+        <v>0.6456593340728602</v>
       </c>
       <c r="K25">
-        <v>0.6324657132090081</v>
+        <v>0.5377303145963239</v>
       </c>
       <c r="L25">
-        <v>0.05963606150787371</v>
+        <v>0.2332076243731258</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1740114737685658</v>
       </c>
       <c r="N25">
-        <v>0.2261375196311093</v>
+        <v>0.05776138542038467</v>
       </c>
       <c r="O25">
-        <v>0.5161046397980158</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.9050737432763647</v>
+        <v>0.2464607488606987</v>
       </c>
       <c r="Q25">
+        <v>0.5022937547859954</v>
+      </c>
+      <c r="R25">
+        <v>0.8883281536741272</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
